--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,10 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Crlf1</t>
   </si>
   <si>
     <t>Cntfr</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09348200000000001</v>
+        <v>0.4246926666666667</v>
       </c>
       <c r="H2">
-        <v>0.280446</v>
+        <v>1.274078</v>
       </c>
       <c r="I2">
-        <v>0.005557760591445323</v>
+        <v>0.09334592376017149</v>
       </c>
       <c r="J2">
-        <v>0.007632705645359707</v>
+        <v>0.1022198317118495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,22 +558,22 @@
         <v>15.7807</v>
       </c>
       <c r="O2">
-        <v>0.8086411516342948</v>
+        <v>0.9923255699668696</v>
       </c>
       <c r="P2">
-        <v>0.860425445697513</v>
+        <v>0.9948705915491572</v>
       </c>
       <c r="Q2">
-        <v>0.4917371324666667</v>
+        <v>2.233982521622222</v>
       </c>
       <c r="R2">
-        <v>4.4256341922</v>
+        <v>20.1058426946</v>
       </c>
       <c r="S2">
-        <v>0.004494233925174046</v>
+        <v>0.09262954699939613</v>
       </c>
       <c r="T2">
-        <v>0.006567374156786549</v>
+        <v>0.101695504443223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,217 +581,217 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09348200000000001</v>
+        <v>0.4246926666666667</v>
       </c>
       <c r="H3">
-        <v>0.280446</v>
+        <v>1.274078</v>
       </c>
       <c r="I3">
-        <v>0.005557760591445323</v>
+        <v>0.09334592376017149</v>
       </c>
       <c r="J3">
-        <v>0.007632705645359707</v>
+        <v>0.1022198317118495</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.05782766666666667</v>
+        <v>0.0406815</v>
       </c>
       <c r="N3">
-        <v>0.173483</v>
+        <v>0.081363</v>
       </c>
       <c r="O3">
-        <v>0.008889687587304263</v>
+        <v>0.007674430033130447</v>
       </c>
       <c r="P3">
-        <v>0.009458971249433908</v>
+        <v>0.005129408450842744</v>
       </c>
       <c r="Q3">
-        <v>0.005405845935333334</v>
+        <v>0.017277134719</v>
       </c>
       <c r="R3">
-        <v>0.04865261341800001</v>
+        <v>0.103662808314</v>
       </c>
       <c r="S3">
-        <v>4.940675534298029E-05</v>
+        <v>0.000716376760775365</v>
       </c>
       <c r="T3">
-        <v>7.219754325484935E-05</v>
+        <v>0.0005243272686264841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09348200000000001</v>
+        <v>2.940075666666667</v>
       </c>
       <c r="H4">
-        <v>0.280446</v>
+        <v>8.820226999999999</v>
       </c>
       <c r="I4">
-        <v>0.005557760591445323</v>
+        <v>0.6462180785551639</v>
       </c>
       <c r="J4">
-        <v>0.007632705645359707</v>
+        <v>0.707650645879068</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.174506</v>
+        <v>5.260233333333333</v>
       </c>
       <c r="N4">
-        <v>2.349012</v>
+        <v>15.7807</v>
       </c>
       <c r="O4">
-        <v>0.1805535656418389</v>
+        <v>0.9923255699668696</v>
       </c>
       <c r="P4">
-        <v>0.12807731577489</v>
+        <v>0.9948705915491572</v>
       </c>
       <c r="Q4">
-        <v>0.109795169892</v>
+        <v>15.46548402432222</v>
       </c>
       <c r="R4">
-        <v>0.6587710193520001</v>
+        <v>139.1893562189</v>
       </c>
       <c r="S4">
-        <v>0.001003473491769149</v>
+        <v>0.6412587231251483</v>
       </c>
       <c r="T4">
-        <v>0.0009775764511575208</v>
+        <v>0.7040208166758516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09348200000000001</v>
+        <v>2.940075666666667</v>
       </c>
       <c r="H5">
-        <v>0.280446</v>
+        <v>8.820226999999999</v>
       </c>
       <c r="I5">
-        <v>0.005557760591445323</v>
+        <v>0.6462180785551639</v>
       </c>
       <c r="J5">
-        <v>0.007632705645359707</v>
+        <v>0.707650645879068</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.012461</v>
+        <v>0.0406815</v>
       </c>
       <c r="N5">
-        <v>0.037383</v>
+        <v>0.081363</v>
       </c>
       <c r="O5">
-        <v>0.001915595136562057</v>
+        <v>0.007674430033130447</v>
       </c>
       <c r="P5">
-        <v>0.002038267278163208</v>
+        <v>0.005129408450842744</v>
       </c>
       <c r="Q5">
-        <v>0.001164879202</v>
+        <v>0.1196066882335</v>
       </c>
       <c r="R5">
-        <v>0.010483912818</v>
+        <v>0.717640129401</v>
       </c>
       <c r="S5">
-        <v>1.064641915914892E-05</v>
+        <v>0.0049593554300156</v>
       </c>
       <c r="T5">
-        <v>1.555749416078828E-05</v>
+        <v>0.003629829203216418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.940075666666667</v>
+        <v>1.1848965</v>
       </c>
       <c r="H6">
-        <v>8.820227000000001</v>
+        <v>2.369793</v>
       </c>
       <c r="I6">
-        <v>0.1747955400619086</v>
+        <v>0.2604359976846646</v>
       </c>
       <c r="J6">
-        <v>0.2400540439737208</v>
+        <v>0.1901295224090825</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,704 +806,84 @@
         <v>15.7807</v>
       </c>
       <c r="O6">
-        <v>0.8086411516342948</v>
+        <v>0.9923255699668696</v>
       </c>
       <c r="P6">
-        <v>0.860425445697513</v>
+        <v>0.9948705915491572</v>
       </c>
       <c r="Q6">
-        <v>15.46548402432222</v>
+        <v>6.232832065849998</v>
       </c>
       <c r="R6">
-        <v>139.1893562189</v>
+        <v>37.39699239509999</v>
       </c>
       <c r="S6">
-        <v>0.1413468668162003</v>
+        <v>0.2584372998423251</v>
       </c>
       <c r="T6">
-        <v>0.2065486077775791</v>
+        <v>0.1891542704300826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.940075666666667</v>
+        <v>1.1848965</v>
       </c>
       <c r="H7">
-        <v>8.820227000000001</v>
+        <v>2.369793</v>
       </c>
       <c r="I7">
-        <v>0.1747955400619086</v>
+        <v>0.2604359976846646</v>
       </c>
       <c r="J7">
-        <v>0.2400540439737208</v>
+        <v>0.1901295224090825</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.05782766666666667</v>
+        <v>0.0406815</v>
       </c>
       <c r="N7">
-        <v>0.173483</v>
+        <v>0.081363</v>
       </c>
       <c r="O7">
-        <v>0.008889687587304263</v>
+        <v>0.007674430033130447</v>
       </c>
       <c r="P7">
-        <v>0.009458971249433908</v>
+        <v>0.005129408450842744</v>
       </c>
       <c r="Q7">
-        <v>0.1700177156267778</v>
+        <v>0.04820336696474999</v>
       </c>
       <c r="R7">
-        <v>1.530159440641</v>
+        <v>0.192813467859</v>
       </c>
       <c r="S7">
-        <v>0.001553877742804493</v>
+        <v>0.001998697842339481</v>
       </c>
       <c r="T7">
-        <v>0.002270664300257768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.940075666666667</v>
-      </c>
-      <c r="H8">
-        <v>8.820227000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.1747955400619086</v>
-      </c>
-      <c r="J8">
-        <v>0.2400540439737208</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.174506</v>
-      </c>
-      <c r="N8">
-        <v>2.349012</v>
-      </c>
-      <c r="O8">
-        <v>0.1805535656418389</v>
-      </c>
-      <c r="P8">
-        <v>0.12807731577489</v>
-      </c>
-      <c r="Q8">
-        <v>3.453136510954001</v>
-      </c>
-      <c r="R8">
-        <v>20.718819065724</v>
-      </c>
-      <c r="S8">
-        <v>0.03155995801646849</v>
-      </c>
-      <c r="T8">
-        <v>0.03074547759306157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.940075666666667</v>
-      </c>
-      <c r="H9">
-        <v>8.820227000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.1747955400619086</v>
-      </c>
-      <c r="J9">
-        <v>0.2400540439737208</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.012461</v>
-      </c>
-      <c r="N9">
-        <v>0.037383</v>
-      </c>
-      <c r="O9">
-        <v>0.001915595136562057</v>
-      </c>
-      <c r="P9">
-        <v>0.002038267278163208</v>
-      </c>
-      <c r="Q9">
-        <v>0.03663628288233334</v>
-      </c>
-      <c r="R9">
-        <v>0.329726545941</v>
-      </c>
-      <c r="S9">
-        <v>0.0003348374864353302</v>
-      </c>
-      <c r="T9">
-        <v>0.0004892943028223869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>13.71758</v>
-      </c>
-      <c r="H10">
-        <v>27.43516</v>
-      </c>
-      <c r="I10">
-        <v>0.8155476512483529</v>
-      </c>
-      <c r="J10">
-        <v>0.7466838557631301</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.260233333333333</v>
-      </c>
-      <c r="N10">
-        <v>15.7807</v>
-      </c>
-      <c r="O10">
-        <v>0.8086411516342948</v>
-      </c>
-      <c r="P10">
-        <v>0.860425445697513</v>
-      </c>
-      <c r="Q10">
-        <v>72.15767156866666</v>
-      </c>
-      <c r="R10">
-        <v>432.946029412</v>
-      </c>
-      <c r="S10">
-        <v>0.6594853919181124</v>
-      </c>
-      <c r="T10">
-        <v>0.6424657893901288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>13.71758</v>
-      </c>
-      <c r="H11">
-        <v>27.43516</v>
-      </c>
-      <c r="I11">
-        <v>0.8155476512483529</v>
-      </c>
-      <c r="J11">
-        <v>0.7466838557631301</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.05782766666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.173483</v>
-      </c>
-      <c r="O11">
-        <v>0.008889687587304263</v>
-      </c>
-      <c r="P11">
-        <v>0.009458971249433908</v>
-      </c>
-      <c r="Q11">
-        <v>0.7932556437133333</v>
-      </c>
-      <c r="R11">
-        <v>4.75953386228</v>
-      </c>
-      <c r="S11">
-        <v>0.007249963832157629</v>
-      </c>
-      <c r="T11">
-        <v>0.007062861124079903</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>13.71758</v>
-      </c>
-      <c r="H12">
-        <v>27.43516</v>
-      </c>
-      <c r="I12">
-        <v>0.8155476512483529</v>
-      </c>
-      <c r="J12">
-        <v>0.7466838557631301</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.174506</v>
-      </c>
-      <c r="N12">
-        <v>2.349012</v>
-      </c>
-      <c r="O12">
-        <v>0.1805535656418389</v>
-      </c>
-      <c r="P12">
-        <v>0.12807731577489</v>
-      </c>
-      <c r="Q12">
-        <v>16.11138001548</v>
-      </c>
-      <c r="R12">
-        <v>64.44552006192001</v>
-      </c>
-      <c r="S12">
-        <v>0.147250036383717</v>
-      </c>
-      <c r="T12">
-        <v>0.09563326397858685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>13.71758</v>
-      </c>
-      <c r="H13">
-        <v>27.43516</v>
-      </c>
-      <c r="I13">
-        <v>0.8155476512483529</v>
-      </c>
-      <c r="J13">
-        <v>0.7466838557631301</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.012461</v>
-      </c>
-      <c r="N13">
-        <v>0.037383</v>
-      </c>
-      <c r="O13">
-        <v>0.001915595136562057</v>
-      </c>
-      <c r="P13">
-        <v>0.002038267278163208</v>
-      </c>
-      <c r="Q13">
-        <v>0.17093476438</v>
-      </c>
-      <c r="R13">
-        <v>1.02560858628</v>
-      </c>
-      <c r="S13">
-        <v>0.001562259114365953</v>
-      </c>
-      <c r="T13">
-        <v>0.001521941270334724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.06894633333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.206839</v>
-      </c>
-      <c r="I14">
-        <v>0.004099048098293287</v>
-      </c>
-      <c r="J14">
-        <v>0.005629394617789365</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>5.260233333333333</v>
-      </c>
-      <c r="N14">
-        <v>15.7807</v>
-      </c>
-      <c r="O14">
-        <v>0.8086411516342948</v>
-      </c>
-      <c r="P14">
-        <v>0.860425445697513</v>
-      </c>
-      <c r="Q14">
-        <v>0.3626738008111111</v>
-      </c>
-      <c r="R14">
-        <v>3.2640642073</v>
-      </c>
-      <c r="S14">
-        <v>0.00331465897480825</v>
-      </c>
-      <c r="T14">
-        <v>0.004843674373018595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.06894633333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.206839</v>
-      </c>
-      <c r="I15">
-        <v>0.004099048098293287</v>
-      </c>
-      <c r="J15">
-        <v>0.005629394617789365</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.05782766666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.173483</v>
-      </c>
-      <c r="O15">
-        <v>0.008889687587304263</v>
-      </c>
-      <c r="P15">
-        <v>0.009458971249433908</v>
-      </c>
-      <c r="Q15">
-        <v>0.003987005581888889</v>
-      </c>
-      <c r="R15">
-        <v>0.035883050237</v>
-      </c>
-      <c r="S15">
-        <v>3.643925699916097E-05</v>
-      </c>
-      <c r="T15">
-        <v>5.324828184138759E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.06894633333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.206839</v>
-      </c>
-      <c r="I16">
-        <v>0.004099048098293287</v>
-      </c>
-      <c r="J16">
-        <v>0.005629394617789365</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.174506</v>
-      </c>
-      <c r="N16">
-        <v>2.349012</v>
-      </c>
-      <c r="O16">
-        <v>0.1805535656418389</v>
-      </c>
-      <c r="P16">
-        <v>0.12807731577489</v>
-      </c>
-      <c r="Q16">
-        <v>0.080977882178</v>
-      </c>
-      <c r="R16">
-        <v>0.485867293068</v>
-      </c>
-      <c r="S16">
-        <v>0.0007400977498842519</v>
-      </c>
-      <c r="T16">
-        <v>0.0007209977520840747</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.06894633333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.206839</v>
-      </c>
-      <c r="I17">
-        <v>0.004099048098293287</v>
-      </c>
-      <c r="J17">
-        <v>0.005629394617789365</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.012461</v>
-      </c>
-      <c r="N17">
-        <v>0.037383</v>
-      </c>
-      <c r="O17">
-        <v>0.001915595136562057</v>
-      </c>
-      <c r="P17">
-        <v>0.002038267278163208</v>
-      </c>
-      <c r="Q17">
-        <v>0.0008591402596666666</v>
-      </c>
-      <c r="R17">
-        <v>0.007732262337</v>
-      </c>
-      <c r="S17">
-        <v>7.852116601624568E-06</v>
-      </c>
-      <c r="T17">
-        <v>1.147421084530814E-05</v>
+        <v>0.0009752519789998425</v>
       </c>
     </row>
   </sheetData>
